--- a/calcs_ports_timers.xlsx
+++ b/calcs_ports_timers.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="460" windowWidth="14040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="14100" yWindow="460" windowWidth="14100" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PORTS" sheetId="1" r:id="rId1"/>
-    <sheet name="TIMERS" sheetId="2" r:id="rId2"/>
-    <sheet name="REGISTERS" sheetId="3" r:id="rId3"/>
-    <sheet name="TIMING" sheetId="4" r:id="rId4"/>
+    <sheet name="PINS" sheetId="5" r:id="rId1"/>
+    <sheet name="PHYSICAL" sheetId="7" r:id="rId2"/>
+    <sheet name="TIMERS" sheetId="2" r:id="rId3"/>
+    <sheet name="REGISTERS" sheetId="3" r:id="rId4"/>
+    <sheet name="TIMING" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -63,154 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
-  <si>
-    <t>Teensy LC Pin usage</t>
-  </si>
-  <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P18</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>RX1</t>
-  </si>
-  <si>
-    <t>TX1</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>ONBOARD LED</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>SDA1</t>
-  </si>
-  <si>
-    <t>SCL1</t>
-  </si>
-  <si>
-    <t>BT? Later</t>
-  </si>
-  <si>
-    <t>Save analog for battery level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>Wheel size</t>
   </si>
@@ -344,65 +198,179 @@
     <t>Source</t>
   </si>
   <si>
-    <t>B17</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>EXTRG_IN</t>
+    <t>LABELLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT </t>
+  </si>
+  <si>
+    <t>PTB16</t>
+  </si>
+  <si>
+    <t>PTB17</t>
+  </si>
+  <si>
+    <t>PTD0</t>
+  </si>
+  <si>
+    <t>PTA1</t>
+  </si>
+  <si>
+    <t>PTA2</t>
+  </si>
+  <si>
+    <t>PTD7</t>
+  </si>
+  <si>
+    <t>PTD4</t>
+  </si>
+  <si>
+    <t>PTD2</t>
+  </si>
+  <si>
+    <t>PTD3</t>
+  </si>
+  <si>
+    <t>PTC3</t>
+  </si>
+  <si>
+    <t>PTC4</t>
+  </si>
+  <si>
+    <t>PTC6</t>
+  </si>
+  <si>
+    <t>PTC7</t>
+  </si>
+  <si>
+    <t>PTC5</t>
+  </si>
+  <si>
+    <t>PHYSICAL PERI</t>
+  </si>
+  <si>
+    <t>LOGICAL PERI</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>PTD1</t>
+  </si>
+  <si>
+    <t>PTC0</t>
+  </si>
+  <si>
+    <t>PTB0</t>
+  </si>
+  <si>
+    <t>PTB1</t>
+  </si>
+  <si>
+    <t>PTB3</t>
+  </si>
+  <si>
+    <t>PTB2</t>
+  </si>
+  <si>
+    <t>PTD5</t>
+  </si>
+  <si>
+    <t>PTD6</t>
+  </si>
+  <si>
+    <t>PTC1</t>
+  </si>
+  <si>
+    <t>PTC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0_SCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C0_SDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRG_IN </t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>ADC0_SE12</t>
+  </si>
+  <si>
+    <t>ASSIGNED</t>
+  </si>
+  <si>
+    <t>AN0</t>
+  </si>
+  <si>
+    <t>AN1</t>
+  </si>
+  <si>
+    <t>AN2</t>
+  </si>
+  <si>
+    <t>AN3</t>
+  </si>
+  <si>
+    <t>AN4</t>
+  </si>
+  <si>
+    <t>AN5</t>
+  </si>
+  <si>
+    <t>AN6</t>
+  </si>
+  <si>
+    <t>AN7</t>
+  </si>
+  <si>
+    <t>CA0</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>CA2</t>
+  </si>
+  <si>
+    <t>CA3</t>
+  </si>
+  <si>
+    <t>CA4</t>
+  </si>
+  <si>
+    <t>CA5</t>
+  </si>
+  <si>
+    <t>CA6</t>
+  </si>
+  <si>
+    <t>CA7</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>status led</t>
+  </si>
+  <si>
+    <t>HALL-EFFECT</t>
+  </si>
+  <si>
+    <t>ANALOG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,8 +389,13 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="HelveticaLTStd"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +420,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -460,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -468,6 +459,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,6 +475,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24817" t="40250" b="20398"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1287367" y="858936"/>
+          <a:ext cx="3572066" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,306 +790,530 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E25">
-    <sortCondition ref="A2:A25"/>
+  <sortState ref="A2:D25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,PINS!$A$2:$E$25,5,0)</f>
+        <v>status led</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>VLOOKUP(B5,PINS!$A$2:$E$25,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="str">
+        <f>VLOOKUP(B6,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f>VLOOKUP(F6,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>VLOOKUP(B7,PINS!$A$2:$E$25,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f>VLOOKUP(F7,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>VLOOKUP(B8,PINS!$A$2:$E$25,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f>VLOOKUP(F8,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="str">
+        <f>VLOOKUP(B9,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>VLOOKUP(F9,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="str">
+        <f>VLOOKUP(B10,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN4</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,PINS!$A$2:$E$25,5,0)</f>
+        <v>ANALOG</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="str">
+        <f>VLOOKUP(B11,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN2</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f>VLOOKUP(F11,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="str">
+        <f>VLOOKUP(B12,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN3</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f>VLOOKUP(F12,PINS!$A$2:$E$25,5,0)</f>
+        <v>I2C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="str">
+        <f>VLOOKUP(B13,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA3</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f>VLOOKUP(F13,PINS!$A$2:$E$25,5,0)</f>
+        <v>I2C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="str">
+        <f>VLOOKUP(B14,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA4</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>VLOOKUP(F14,PINS!$A$2:$E$25,5,0)</f>
+        <v>HALL-EFFECT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="str">
+        <f>VLOOKUP(B15,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA6</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>VLOOKUP(F15,PINS!$A$2:$E$25,5,0)</f>
+        <v>AN1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="str">
+        <f>VLOOKUP(B16,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA7</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f>VLOOKUP(F16,PINS!$A$2:$E$25,5,0)</f>
+        <v>CA5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1061,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1081,12 +1348,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1107,14 +1374,14 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>2.54*A2</f>
         <v>66.040000000000006</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1123,12 +1390,12 @@
         <v>0.6604000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,12 +1404,12 @@
         <v>2.0747077884306995</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1150,19 +1417,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f>A8*1000/(60*60)</f>
         <v>4.166666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1170,14 +1437,14 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10" si="0">A10*1000/(60*60)</f>
         <v>18.055555555555557</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,7 +1452,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1194,19 +1461,19 @@
         <v>2.0083149491708983</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <f>A13*2*PI()</f>
         <v>12.618614980819705</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1215,22 +1482,22 @@
         <v>8.7026981130738932</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15" si="1">A15*2*PI()</f>
         <v>54.680664916885398</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,7 +1507,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,15 +1516,15 @@
         <v>2.4543692606170259E-2</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1266,26 +1533,26 @@
         <v>1.9450385516537807E-3</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <f>A22</f>
         <v>1.9450385516537807E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <f>A22*10^6</f>
         <v>1945.0385516537806</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -1295,26 +1562,26 @@
         <v>4.4885505038164163E-4</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <f>A24</f>
         <v>4.4885505038164163E-4</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <f>A24*10^6</f>
         <v>448.85505038164166</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,7 +1591,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1333,12 +1600,12 @@
         <v>0.49792986922336785</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,12 +1614,12 @@
         <v>0.11490689289770026</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,12 +1627,12 @@
         <v>16000000</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1374,19 +1641,19 @@
         <v>6.2499999999999997E-8</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E40" s="4">
         <f>A40*10^6</f>
         <v>6.25E-2</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -1403,16 +1670,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -1424,42 +1691,42 @@
         <v>6.2499999999999997E-8</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4">
         <f>B50*10^6</f>
         <v>6.25E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F50" s="4">
         <f>D50</f>
         <v>6.25E-2</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <f>F50/(10^6)</f>
         <v>6.2499999999999997E-8</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J50" s="4">
         <f>F50*$A$44</f>
         <v>4096</v>
       </c>
       <c r="K50" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L50">
         <f>J50/(10^6)</f>
         <v>4.0959999999999998E-3</v>
       </c>
       <c r="M50" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -1471,42 +1738,42 @@
         <v>1.2499999999999999E-7</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" ref="D51:D57" si="2">B51*10^6</f>
         <v>0.125</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" ref="F51:F57" si="3">D51</f>
         <v>0.125</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H51">
         <f t="shared" ref="H51:H57" si="4">F51/(10^6)</f>
         <v>1.2499999999999999E-7</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" ref="J51:J57" si="5">F51*$A$44</f>
         <v>8192</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L51">
         <f t="shared" ref="L51:L57" si="6">J51/(10^6)</f>
         <v>8.1919999999999996E-3</v>
       </c>
       <c r="M51" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -1518,42 +1785,42 @@
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H52">
         <f t="shared" si="4"/>
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="5"/>
         <v>16384</v>
       </c>
       <c r="K52" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L52">
         <f t="shared" si="6"/>
         <v>1.6383999999999999E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -1565,42 +1832,42 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H53">
         <f t="shared" si="4"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="5"/>
         <v>32768</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L53">
         <f t="shared" si="6"/>
         <v>3.2767999999999999E-2</v>
       </c>
       <c r="M53" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -1612,42 +1879,42 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H54">
         <f t="shared" si="4"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L54">
         <f t="shared" si="6"/>
         <v>6.5535999999999997E-2</v>
       </c>
       <c r="M54" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -1659,42 +1926,42 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H55">
         <f t="shared" si="4"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" si="5"/>
         <v>131072</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L55">
         <f t="shared" si="6"/>
         <v>0.13107199999999999</v>
       </c>
       <c r="M55" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -1706,42 +1973,42 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H56">
         <f t="shared" si="4"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="5"/>
         <v>262144</v>
       </c>
       <c r="K56" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L56">
         <f t="shared" si="6"/>
         <v>0.26214399999999999</v>
       </c>
       <c r="M56" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -1753,131 +2020,131 @@
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H57">
         <f t="shared" si="4"/>
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="5"/>
         <v>524288</v>
       </c>
       <c r="K57" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="L57">
         <f t="shared" si="6"/>
         <v>0.52428799999999998</v>
       </c>
       <c r="M57" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="L60" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C61">
         <f>A34</f>
         <v>0.11490689289770026</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <f>C61*10^6</f>
         <v>114906.89289770027</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G61">
         <f>A32</f>
         <v>0.49792986922336785</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I61">
         <f>G61*10^6</f>
         <v>497929.86922336783</v>
       </c>
       <c r="J61" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C62">
         <f>A24/A28</f>
         <v>7.0133601622131505E-6</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <f>C62*10^6</f>
         <v>7.013360162213151</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="G62">
         <f>A22/A28</f>
         <v>3.0391227369590323E-5</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I62">
         <f>G62*10^6</f>
         <v>30.391227369590322</v>
       </c>
       <c r="J62" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -1885,7 +2152,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/calcs_ports_timers.xlsx
+++ b/calcs_ports_timers.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="460" windowWidth="14100" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14100" yWindow="460" windowWidth="14100" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PINS" sheetId="5" r:id="rId1"/>
-    <sheet name="PHYSICAL" sheetId="7" r:id="rId2"/>
-    <sheet name="TIMERS" sheetId="2" r:id="rId3"/>
-    <sheet name="REGISTERS" sheetId="3" r:id="rId4"/>
-    <sheet name="TIMING" sheetId="4" r:id="rId5"/>
+    <sheet name="SEGMENTS" sheetId="8" r:id="rId2"/>
+    <sheet name="PHYSICAL" sheetId="7" r:id="rId3"/>
+    <sheet name="TIMERS" sheetId="2" r:id="rId4"/>
+    <sheet name="REGISTERS" sheetId="3" r:id="rId5"/>
+    <sheet name="TIMING" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="104">
   <si>
     <t>Wheel size</t>
   </si>
@@ -364,13 +365,25 @@
   </si>
   <si>
     <t>ANALOG</t>
+  </si>
+  <si>
+    <t>SNUM</t>
+  </si>
+  <si>
+    <t>LEDNUM</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>CAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +406,22 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="HelveticaLTStd"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -448,8 +477,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -464,7 +497,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,15 +825,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -813,7 +850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -823,8 +860,12 @@
       <c r="D2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>A2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -834,8 +875,12 @@
       <c r="D3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">A3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
@@ -848,8 +893,12 @@
       <c r="E4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>17</v>
       </c>
@@ -862,8 +911,12 @@
       <c r="E5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -873,16 +926,24 @@
       <c r="E6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>19</v>
       </c>
@@ -895,8 +956,12 @@
       <c r="E8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -906,8 +971,12 @@
       <c r="E9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -920,8 +989,12 @@
       <c r="E10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
@@ -931,8 +1004,12 @@
       <c r="E11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>23</v>
       </c>
@@ -942,8 +1019,12 @@
       <c r="E12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -953,8 +1034,12 @@
       <c r="E13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -964,8 +1049,12 @@
       <c r="E14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -978,8 +1067,12 @@
       <c r="E15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
@@ -989,8 +1082,12 @@
       <c r="E16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1000,8 +1097,12 @@
       <c r="E17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1011,8 +1112,12 @@
       <c r="E18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1022,8 +1127,12 @@
       <c r="E19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1033,8 +1142,12 @@
       <c r="E20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1044,8 +1157,12 @@
       <c r="E21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1055,8 +1172,12 @@
       <c r="E22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1066,8 +1187,12 @@
       <c r="E23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1077,8 +1202,12 @@
       <c r="E24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1087,6 +1216,10 @@
       </c>
       <c r="E25" t="s">
         <v>87</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1099,10 +1232,968 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(C50,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP(E50,PINS!E$11:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(C51,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP(E51,PINS!E$11:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(C52,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP(E52,PINS!E$11:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(C53,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP(E53,PINS!E$11:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(C54,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP(E54,PINS!E$11:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(C55,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <f>VLOOKUP(E55,PINS!E$11:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(C56,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP(E56,PINS!E$11:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(C57,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP(E57,PINS!E$11:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(C58,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP(E58,PINS!E$11:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(C59,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP(E59,PINS!E$11:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(C60,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(E60,PINS!E$11:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61">
+        <f>VLOOKUP(C61,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61">
+        <f>VLOOKUP(E61,PINS!E$11:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(C62,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62">
+        <f>VLOOKUP(E62,PINS!E$11:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(C63,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(E63,PINS!E$11:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(C64,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(E64,PINS!E$11:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(C65,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(E65,PINS!E$11:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,7 +2404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1336,7 +2427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1348,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>

--- a/calcs_ports_timers.xlsx
+++ b/calcs_ports_timers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="460" windowWidth="14100" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14080" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PINS" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="REGISTERS" sheetId="3" r:id="rId5"/>
     <sheet name="TIMING" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="178">
   <si>
     <t>Wheel size</t>
   </si>
@@ -377,13 +377,313 @@
   </si>
   <si>
     <t>CAT</t>
+  </si>
+  <si>
+    <t>BLOCKS</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>s1a</t>
+  </si>
+  <si>
+    <t>MGC module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to use </t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Clocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core clock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCGOUTCLK </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTDIV1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCGFLLCLK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCGPLLCLK </t>
+  </si>
+  <si>
+    <t>UART0, TPM</t>
+  </si>
+  <si>
+    <t>UP to 100MHz</t>
+  </si>
+  <si>
+    <t>Up to 48 MHz</t>
+  </si>
+  <si>
+    <t>Up to 100 MHz</t>
+  </si>
+  <si>
+    <t>MCG</t>
+  </si>
+  <si>
+    <t>Clock dividers are programmed by the SIM module</t>
+  </si>
+  <si>
+    <t>OUTDIV1</t>
+  </si>
+  <si>
+    <t>1 -16 x divider</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATFORM </t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR </t>
+  </si>
+  <si>
+    <t>Enable clocks</t>
+  </si>
+  <si>
+    <t>SIM_SOPT2</t>
+  </si>
+  <si>
+    <t>Select between Pll/FLL</t>
+  </si>
+  <si>
+    <t>TpmSRC</t>
+  </si>
+  <si>
+    <t>Select FLL</t>
+  </si>
+  <si>
+    <t>Select MCG</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Uart0</t>
+  </si>
+  <si>
+    <t>UART0SRC</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>TIMER INIT</t>
+  </si>
+  <si>
+    <t>GPIO INIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What needs to be configged? </t>
+  </si>
+  <si>
+    <t>Port data op</t>
+  </si>
+  <si>
+    <t>actual values on the pin</t>
+  </si>
+  <si>
+    <t>Port input/output status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOA_PDDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOA_PDOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOB_PDOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOB_PDDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOC_PDOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOC_PDDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOD_PDOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOD_PDDR </t>
+  </si>
+  <si>
+    <t>BIT7</t>
+  </si>
+  <si>
+    <t>Timer OF flag</t>
+  </si>
+  <si>
+    <t>write `1 to clear</t>
+  </si>
+  <si>
+    <t>Must be cleared on OF</t>
+  </si>
+  <si>
+    <t>BIT6</t>
+  </si>
+  <si>
+    <t>Enable interrupts</t>
+  </si>
+  <si>
+    <t>BIT 4-3</t>
+  </si>
+  <si>
+    <t>clock mode</t>
+  </si>
+  <si>
+    <t>Bit 2-0</t>
+  </si>
+  <si>
+    <t>Prescale factor</t>
+  </si>
+  <si>
+    <t>(clock must be disabled)</t>
+  </si>
+  <si>
+    <r>
+      <t>GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_PDOR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SCGC</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TPM</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_SC </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_PDDR </t>
+    </r>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>reads the current CNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,6 +721,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,15 +783,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -496,12 +856,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,10 +1212,13 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1232,15 +1619,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1254,932 +1645,2224 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(C2,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(E2,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="16">
+        <f>D2</f>
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <f>F2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(C3,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(E3,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I3" t="str">
+        <f>I2&amp;","&amp;D3</f>
+        <v>8,7</v>
+      </c>
+      <c r="L3" t="str">
+        <f>L2&amp;","&amp;F3</f>
+        <v>9,9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(C4,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(E4,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I17" si="0">I3&amp;","&amp;D4</f>
+        <v>8,7,14</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L17" si="1">L3&amp;","&amp;F4</f>
+        <v>9,9,9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(C5,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(E5,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(C6,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(E6,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(C7,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(E7,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(C8,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(E8,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(C9,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(E9,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(C10,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(E10,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(C11,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(E11,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(C12,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(E12,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(C13,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(E13,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(C14,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(E14,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(C15,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(E15,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(C16,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(E16,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18,18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(C17,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(E17,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="J17" t="str">
+        <f>"s"&amp;A17&amp;"a[]={"&amp;I17&amp;"};"</f>
+        <v>s1a[]={8,7,14,2,8,7,14,2,8,7,14,2,8,7,14,2};</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18,18,18</v>
+      </c>
+      <c r="M17" t="str">
+        <f>"s"&amp;A17&amp;"c[]={"&amp;L17&amp;"};"</f>
+        <v>s1c[]={9,9,9,9,23,23,23,23,22,22,22,22,18,18,18,18};</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(C18,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(E18,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <f>D18</f>
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f>F18</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(C19,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(E19,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I19" t="str">
+        <f>I18&amp;","&amp;D19</f>
+        <v>5,21</v>
+      </c>
+      <c r="L19" t="str">
+        <f>L18&amp;","&amp;F19</f>
+        <v>9,9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(C20,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(E20,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ref="I20:I33" si="2">I19&amp;","&amp;D20</f>
+        <v>5,21,20</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ref="L20:L33" si="3">L19&amp;","&amp;F20</f>
+        <v>9,9,9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(C21,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(E21,PINS!E$9:F$25,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(C22,PINS!E$11:F$25,2,0)</f>
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>VLOOKUP(E22,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(C23,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>VLOOKUP(E23,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(C24,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>VLOOKUP(E24,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(C25,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>VLOOKUP(E25,PINS!E$9:F$25,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(C26,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(E26,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(C27,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(E27,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(C28,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(E28,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(C29,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(E29,PINS!E$9:F$25,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(C30,PINS!E$11:F$25,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(E30,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(C31,PINS!E$11:F$25,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(E31,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(C32,PINS!E$11:F$25,2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(E32,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18,18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(C33,PINS!E$11:F$25,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(E33,PINS!E$9:F$25,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="J33" t="str">
+        <f>"s"&amp;A33&amp;"a[]={"&amp;I33&amp;"};"</f>
+        <v>s2a[]={5,21,20,6,5,21,20,6,5,21,20,6,5,21,20,6};</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v>9,9,9,9,23,23,23,23,22,22,22,22,18,18,18,18</v>
+      </c>
+      <c r="M33" t="str">
+        <f>"s"&amp;A33&amp;"c[]={"&amp;L33&amp;"};"</f>
+        <v>s2c[]={9,9,9,9,23,23,23,23,22,22,22,22,18,18,18,18};</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(C34,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(E34,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <f>D34</f>
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <f>F34</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(C35,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(E35,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I35" t="str">
+        <f>I34&amp;","&amp;D35</f>
+        <v>8,7</v>
+      </c>
+      <c r="L35" t="str">
+        <f>L34&amp;","&amp;F35</f>
+        <v>12,12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(C36,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(E36,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" ref="I36:I49" si="4">I35&amp;","&amp;D36</f>
+        <v>8,7,14</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" ref="L36:L49" si="5">L35&amp;","&amp;F36</f>
+        <v>12,12,12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(C37,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP(E37,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(C38,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP(E38,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(C39,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP(E39,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(C40,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40">
+        <f>VLOOKUP(E40,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(C41,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP(E41,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(C42,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP(E42,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(C43,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP(E43,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(C44,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP(E44,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(C45,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45">
+        <f>VLOOKUP(E45,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(C46,PINS!E$11:F$25,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f>VLOOKUP(E46,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(C47,PINS!E$11:F$25,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f>VLOOKUP(E47,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(C48,PINS!E$11:F$25,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f>VLOOKUP(E48,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7,14</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10,10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(C49,PINS!E$11:F$25,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f>VLOOKUP(E49,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v>8,7,14,2,8,7,14,2,8,7,14,2,8,7,14,2</v>
+      </c>
+      <c r="J49" t="str">
+        <f>"s"&amp;A49&amp;"a[]={"&amp;I49&amp;"};"</f>
+        <v>s3a[]={8,7,14,2,8,7,14,2,8,7,14,2,8,7,14,2};</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="5"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10,10,10</v>
+      </c>
+      <c r="M49" t="str">
+        <f>"s"&amp;A49&amp;"c[]={"&amp;L49&amp;"};"</f>
+        <v>s3c[]={12,12,12,12,11,11,11,11,13,13,13,13,10,10,10,10};</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(C50,PINS!E$11:F$25,2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(E50,PINS!E$11:F$25,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E50,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I50">
+        <f>D50</f>
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <f>F50</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D51">
         <f>VLOOKUP(C51,PINS!E$11:F$25,2,0)</f>
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F51">
-        <f>VLOOKUP(E51,PINS!E$11:F$25,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E51,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I51" t="str">
+        <f>I50&amp;","&amp;D51</f>
+        <v>5,21</v>
+      </c>
+      <c r="L51" t="str">
+        <f>L50&amp;","&amp;F51</f>
+        <v>12,12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D52">
         <f>VLOOKUP(C52,PINS!E$11:F$25,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>92</v>
+        <v>20</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(E52,PINS!E$11:F$25,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E52,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" ref="I52:I65" si="6">I51&amp;","&amp;D52</f>
+        <v>5,21,20</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" ref="L52:L65" si="7">L51&amp;","&amp;F52</f>
+        <v>12,12,12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(C53,PINS!E$11:F$25,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(E53,PINS!E$11:F$25,2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E53,PINS!E$9:F$25,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(C54,PINS!E$11:F$25,2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E54" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(E54,PINS!E$11:F$25,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E54,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
       <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(C55,PINS!E$11:F$25,2,0)</f>
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(E55,PINS!E$11:F$25,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E55,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
+        <v>6</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(C56,PINS!E$11:F$25,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F56">
-        <f>VLOOKUP(E56,PINS!E$11:F$25,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E56,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(C57,PINS!E$11:F$25,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
+        <v>6</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F57">
-        <f>VLOOKUP(E57,PINS!E$11:F$25,2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E57,PINS!E$9:F$25,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(C58,PINS!E$11:F$25,2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E58" t="s">
-        <v>94</v>
+        <v>5</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F58">
-        <f>VLOOKUP(E58,PINS!E$11:F$25,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E58,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(C59,PINS!E$11:F$25,2,0)</f>
-        <v>20</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
+        <v>21</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F59">
-        <f>VLOOKUP(E59,PINS!E$11:F$25,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E59,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(C60,PINS!E$11:F$25,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E60" t="s">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F60">
-        <f>VLOOKUP(E60,PINS!E$11:F$25,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E60,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
+        <v>11</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(C61,PINS!E$11:F$25,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="F61">
-        <f>VLOOKUP(E61,PINS!E$11:F$25,2,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E61,PINS!E$9:F$25,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(C62,PINS!E$11:F$25,2,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F62">
-        <f>VLOOKUP(E62,PINS!E$11:F$25,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E62,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
+        <v>13</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(C63,PINS!E$11:F$25,2,0)</f>
-        <v>20</v>
-      </c>
-      <c r="E63" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F63">
-        <f>VLOOKUP(E63,PINS!E$11:F$25,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E63,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
       <c r="B64">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(C64,PINS!E$11:F$25,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F64">
-        <f>VLOOKUP(E64,PINS!E$11:F$25,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f>VLOOKUP(E64,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21,20</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10,10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(C65,PINS!E$11:F$25,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(E65,PINS!E$9:F$25,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="6"/>
+        <v>5,21,20,6,5,21,20,6,5,21,20,6,5,21,20,6</v>
+      </c>
+      <c r="J65" t="str">
+        <f>"s"&amp;A65&amp;"a[]={"&amp;I65&amp;"};"</f>
+        <v>s4a[]={5,21,20,6,5,21,20,6,5,21,20,6,5,21,20,6};</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="7"/>
+        <v>12,12,12,12,11,11,11,11,13,13,13,13,10,10,10,10</v>
+      </c>
+      <c r="M65" t="str">
+        <f>"s"&amp;A65&amp;"c[]={"&amp;L65&amp;"};"</f>
+        <v>s4c[]={12,12,12,12,11,11,11,11,13,13,13,13,10,10,10,10};</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F65">
-        <f>VLOOKUP(E65,PINS!E$11:F$25,2,0)</f>
-        <v>12</v>
+      <c r="D69" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B75" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B77" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B78" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B79" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2429,12 +4112,372 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="17">
+        <v>16</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="17">
+        <v>24</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
